--- a/datasets/Girvin79_data.xlsx
+++ b/datasets/Girvin79_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoff Boynton\Documents\MATLAB\p2p-cortical\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ione Fine\Documents\code\p2p-cortical\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E36B816-0AC2-449A-92EA-685CC3BF86E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10455" windowHeight="7410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10460" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="20">
   <si>
     <t>Paper</t>
   </si>
@@ -85,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,12 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,29 +446,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:AC1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="3.2265625" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
     <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="8.953125" customWidth="1"/>
-    <col min="5" max="5" width="8.6796875" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" customWidth="1"/>
     <col min="6" max="6" width="5.1796875" customWidth="1"/>
-    <col min="7" max="7" width="6.6796875" customWidth="1"/>
-    <col min="8" max="8" width="12.6796875" customWidth="1"/>
-    <col min="9" max="9" width="13.6796875" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" customWidth="1"/>
     <col min="10" max="10" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -496,8 +496,17 @@
       <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -525,8 +534,17 @@
       <c r="I2" s="3">
         <v>0.10656620021528562</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -554,8 +572,17 @@
       <c r="I3" s="3">
         <v>8.7190527448869792E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -583,8 +610,17 @@
       <c r="I4" s="3">
         <v>0.11302475780409038</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -612,8 +648,17 @@
       <c r="I5" s="3">
         <v>8.7190527448869792E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -642,7 +687,7 @@
         <v>4.5209903121636197E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -671,7 +716,7 @@
         <v>0.18487394957983128</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -700,7 +745,7 @@
         <v>0.18907563025210106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -729,7 +774,7 @@
         <v>0.15546218487394947</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -758,7 +803,7 @@
         <v>0.10084033613445409</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -787,7 +832,7 @@
         <v>0.14399999999999924</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -816,7 +861,7 @@
         <v>0.11599999999999966</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -845,7 +890,7 @@
         <v>8.7999999999999634E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -874,7 +919,7 @@
         <v>0.12000000000000033</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -903,7 +948,7 @@
         <v>6.3999999999999391E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -932,7 +977,7 @@
         <v>4.4000000000000039E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -961,7 +1006,7 @@
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -990,36 +1035,36 @@
         <v>6.7999999999999949E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>400</v>
-      </c>
-      <c r="G19" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1.6864376130198915</v>
-      </c>
-      <c r="I19" s="3">
-        <v>8.0470162748643714E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F19" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.11844484629294749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1036,19 +1081,19 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G20" s="3">
-        <v>3.0499999999999999E-2</v>
+        <v>0.1205</v>
       </c>
       <c r="H20" s="3">
-        <v>1.7180831826401446</v>
+        <v>1.9522603978300181</v>
       </c>
       <c r="I20" s="3">
-        <v>8.7703435804701746E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+        <v>0.12025316455696222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -1077,7 +1122,7 @@
         <v>0.10036166365280264</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1094,19 +1139,19 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F22" s="3">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0.1205</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="H22" s="3">
-        <v>1.9522603978300181</v>
+        <v>1.7180831826401446</v>
       </c>
       <c r="I22" s="3">
-        <v>0.12025316455696222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.75">
+        <v>8.7703435804701746E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -1123,19 +1168,19 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F23" s="4">
-        <v>12.5</v>
+        <v>400</v>
       </c>
       <c r="G23" s="4">
-        <v>0.24049999999999999</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H23" s="4">
-        <v>2.2000000000000002</v>
+        <v>1.6864376130198915</v>
       </c>
       <c r="I23" s="4">
-        <v>0.11844484629294749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.75">
+        <v>8.0470162748643714E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -1164,7 +1209,7 @@
         <v>0.12459016393442646</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1238,7 @@
         <v>0.17049180327868951</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
@@ -1222,7 +1267,7 @@
         <v>7.8688524590165176E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -1251,7 +1296,7 @@
         <v>0.11147540983606574</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -1280,7 +1325,7 @@
         <v>0.13114754098360604</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1354,7 @@
         <v>0.13114754098360759</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -1339,6 +1384,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="P1:X5">
+    <sortCondition ref="U1:U5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/Girvin79_data.xlsx
+++ b/datasets/Girvin79_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ione Fine\Documents\code\p2p-cortical\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoff Boynton\Documents\MATLAB\p2p-cortical\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E36B816-0AC2-449A-92EA-685CC3BF86E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10460" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10455" windowHeight="7410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="20">
   <si>
     <t>Paper</t>
   </si>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,13 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,29 +446,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:AC1048576"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="3.2265625" customWidth="1"/>
     <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" customWidth="1"/>
+    <col min="4" max="4" width="8.953125" customWidth="1"/>
+    <col min="5" max="5" width="8.6796875" customWidth="1"/>
     <col min="6" max="6" width="5.1796875" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="6.6796875" customWidth="1"/>
+    <col min="8" max="8" width="12.6796875" customWidth="1"/>
+    <col min="9" max="9" width="13.6796875" customWidth="1"/>
     <col min="10" max="10" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -496,17 +496,8 @@
       <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -534,17 +525,8 @@
       <c r="I2" s="3">
         <v>0.10656620021528562</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -572,17 +554,8 @@
       <c r="I3" s="3">
         <v>8.7190527448869792E-2</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -610,17 +583,8 @@
       <c r="I4" s="3">
         <v>0.11302475780409038</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -648,17 +612,8 @@
       <c r="I5" s="3">
         <v>8.7190527448869792E-2</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -687,7 +642,7 @@
         <v>4.5209903121636197E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -716,7 +671,7 @@
         <v>0.18487394957983128</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -745,7 +700,7 @@
         <v>0.18907563025210106</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -774,7 +729,7 @@
         <v>0.15546218487394947</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -803,7 +758,7 @@
         <v>0.10084033613445409</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -832,7 +787,7 @@
         <v>0.14399999999999924</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -861,7 +816,7 @@
         <v>0.11599999999999966</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -890,7 +845,7 @@
         <v>8.7999999999999634E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -919,7 +874,7 @@
         <v>0.12000000000000033</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -948,7 +903,7 @@
         <v>6.3999999999999391E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -977,7 +932,7 @@
         <v>4.4000000000000039E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -1006,7 +961,7 @@
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -1035,36 +990,36 @@
         <v>6.7999999999999949E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F19" s="5">
-        <v>12.5</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.24049999999999999</v>
-      </c>
-      <c r="H19" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.11844484629294749</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>400</v>
+      </c>
+      <c r="G19" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.6864376130198915</v>
+      </c>
+      <c r="I19" s="3">
+        <v>8.0470162748643714E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1081,19 +1036,19 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F20" s="3">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0.1205</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="H20" s="3">
-        <v>1.9522603978300181</v>
+        <v>1.7180831826401446</v>
       </c>
       <c r="I20" s="3">
-        <v>0.12025316455696222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8.7703435804701746E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1077,7 @@
         <v>0.10036166365280264</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1139,19 +1094,19 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G22" s="3">
-        <v>3.0499999999999999E-2</v>
+        <v>0.1205</v>
       </c>
       <c r="H22" s="3">
-        <v>1.7180831826401446</v>
+        <v>1.9522603978300181</v>
       </c>
       <c r="I22" s="3">
-        <v>8.7703435804701746E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0.12025316455696222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -1168,19 +1123,19 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F23" s="4">
-        <v>400</v>
+        <v>12.5</v>
       </c>
       <c r="G23" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="H23" s="4">
-        <v>1.6864376130198915</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I23" s="4">
-        <v>8.0470162748643714E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0.11844484629294749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -1209,7 +1164,7 @@
         <v>0.12459016393442646</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -1238,7 +1193,7 @@
         <v>0.17049180327868951</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
@@ -1267,7 +1222,7 @@
         <v>7.8688524590165176E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -1296,7 +1251,7 @@
         <v>0.11147540983606574</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -1325,7 +1280,7 @@
         <v>0.13114754098360604</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
@@ -1354,7 +1309,7 @@
         <v>0.13114754098360759</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -1384,9 +1339,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="P1:X5">
-    <sortCondition ref="U1:U5"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/Girvin79_data.xlsx
+++ b/datasets/Girvin79_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ione Fine\Documents\code\p2p-cortical\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoff Boynton\Documents\MATLAB\p2p-cortical\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AB83A-27E9-4499-8D52-B62FF0726586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10460" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10460" windowHeight="7410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="21">
   <si>
     <t>Paper</t>
   </si>
@@ -79,30 +80,27 @@
   </si>
   <si>
     <t>sem</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -126,10 +124,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -446,940 +442,914 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:AC1048576"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" customWidth="1"/>
-    <col min="6" max="6" width="5.1796875" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
         <v>1.25E-4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>50</v>
       </c>
-      <c r="G2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1">
         <v>2.2927879440258341</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>0.10656620021528562</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F3" s="1">
         <v>50</v>
       </c>
-      <c r="G3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="1">
         <v>1.769644779332616</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>8.7190527448869792E-2</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>50</v>
       </c>
-      <c r="G4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1">
         <v>1.4983853606027986</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>0.11302475780409038</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>50</v>
       </c>
-      <c r="G5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
         <v>1.1496232508073199</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>8.7190527448869792E-2</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
         <v>2E-3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>50</v>
       </c>
-      <c r="G6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.7782561894510226</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>4.5209903121636197E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:24">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="1">
         <v>3.8739495798319301</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>0.18487394957983128</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:24">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1">
         <v>3.0084033613445378</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>0.18907563025210106</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:24">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="1">
         <v>2.2394957983193282</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>0.15546218487394947</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:24" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
         <v>2E-3</v>
       </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="2">
         <v>1.865546218487395</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>0.10084033613445409</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:24">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F11" s="1">
         <v>12.5</v>
       </c>
-      <c r="G11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="1">
         <v>2.7200000000000006</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>0.14399999999999924</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:24">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F12" s="1">
         <v>25</v>
       </c>
-      <c r="G12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="1">
         <v>2.2240000000000002</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>0.11599999999999966</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:24">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F13" s="1">
         <v>50</v>
       </c>
-      <c r="G13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="1">
         <v>1.9600000000000004</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>8.7999999999999634E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:24">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F14" s="1">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="1">
         <v>1.4919999999999998</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>0.12000000000000033</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:24">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F15" s="1">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="1">
         <v>1.1200000000000003</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>6.3999999999999391E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:24">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F16" s="1">
         <v>400</v>
       </c>
-      <c r="G16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="1">
         <v>0.99199999999999977</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="1">
         <v>4.4000000000000039E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F17" s="1">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.95599999999999996</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:9" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F18" s="2">
         <v>1600</v>
       </c>
-      <c r="G18" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="G18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="2">
         <v>0.91199999999999981</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <v>6.7999999999999949E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F19" s="3">
         <v>12.5</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>0.24049999999999999</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>0.11844484629294749</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F20" s="1">
         <v>25</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>0.1205</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>1.9522603978300181</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>0.12025316455696222</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F21" s="1">
         <v>50</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>1.7678119349005426</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1">
         <v>0.10036166365280264</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F22" s="1">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>1.7180831826401446</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>8.7703435804701746E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:9" s="2" customFormat="1">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F23" s="2">
         <v>400</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <v>1.6864376130198915</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <v>8.0470162748643714E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F24" s="1">
         <v>50</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>5.836065573770493</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <v>0.12459016393442646</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F25" s="1">
         <v>50</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="1">
         <v>2.6819672131147523</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="1">
         <v>0.17049180327868951</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F26" s="1">
         <v>50</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <v>2.1508196721311461</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <v>7.8688524590165176E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F27" s="1">
         <v>50</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <v>0.18049999999999999</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="1">
         <v>1.7508196721311462</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="1">
         <v>0.11147540983606574</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F28" s="1">
         <v>50</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="1">
         <v>0.48049999999999998</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="1">
         <v>1.5737704918032775</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="1">
         <v>0.13114754098360604</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F29" s="1">
         <v>50</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="1">
         <v>0.98049999999999993</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="1">
         <v>1.7180327868852447</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="1">
         <v>0.13114754098360759</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F30" s="1">
         <v>50</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="1">
         <v>1.9804999999999999</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="1">
         <v>1.6393442622950807</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="1">
         <v>0.1245901639344269</v>
       </c>
     </row>
